--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2308450.838354523</v>
+        <v>2303821.709434613</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847139</v>
+        <v>2310564.143223171</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8380853.317076758</v>
+        <v>8378493.399515082</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>69.4132576571966</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>220.1835052923923</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>87.06892400849328</v>
+        <v>102.4290392774754</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>72.55567497641742</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>183.1663489017549</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>293.9100809018151</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>228.1507339616216</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -990,7 +990,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1029,16 +1029,16 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>97.69872321707349</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>169.6900736195029</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.3142440495109</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,22 +1060,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>39.71534783581649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1145,10 +1145,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>228.3679170294861</v>
+        <v>91.37649775417424</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>34.10250295830922</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>66.84876875590184</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>287.5954430211824</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
         <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>43.01721371098728</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825603</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>10.76124383727334</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404343</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
@@ -1433,7 +1433,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419572</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
         <v>298.5345275142884</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007175</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035416</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219388</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507299</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484026</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.5802388872324</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380444</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497637</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943229</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391335</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
-        <v>186.5058235738176</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
         <v>137.7482445205302</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>87.52601544627281</v>
       </c>
       <c r="E14" t="n">
         <v>304.5664151603044</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>56.49943888151567</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211824</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -2807,10 +2807,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548577</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414332</v>
+        <v>42.96247126414245</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404344</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007176</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035417</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.0855074921939</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507301</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484028</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723241</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380445</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497638</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.6707049994323</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003581</v>
+        <v>280.4599644277187</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415741</v>
+        <v>265.5568836689347</v>
       </c>
       <c r="E32" t="n">
-        <v>288.971318280696</v>
+        <v>282.5278558080566</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313972</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.444756602952</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752494</v>
+        <v>204.81238610261</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453497</v>
+        <v>20.9239119118956</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443509</v>
+        <v>48.81858568179572</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622526</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158225</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495919</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274706</v>
+        <v>251.2592108548312</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623489</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.93943063468</v>
+        <v>276.4959681620406</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046342</v>
+        <v>67.32610467782405</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074582</v>
+        <v>52.47323292810646</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258555</v>
+        <v>38.04694813994618</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546466</v>
+        <v>37.97339019282529</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523193</v>
+        <v>39.72284161259256</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762406</v>
+        <v>50.5416795349847</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419611</v>
+        <v>37.89393170155674</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536804</v>
+        <v>15.73364728272867</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982395</v>
+        <v>6.632145647184586</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535127</v>
+        <v>84.7580891527119</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595234</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.5545700139538</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734592</v>
+        <v>147.2897179008198</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942093</v>
+        <v>164.4672642215699</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409219</v>
+        <v>115.7096851682825</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175982</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3740,25 +3740,25 @@
         <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118667</v>
       </c>
       <c r="D41" t="n">
         <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>106.258190970747</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.564288486645</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822791</v>
+        <v>40.48690626822786</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812804</v>
+        <v>68.38158003812798</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459456</v>
+        <v>124.7987569459455</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332849</v>
+        <v>242.2189017332848</v>
       </c>
       <c r="W41" t="n">
         <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>82.78514203014321</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415636</v>
+        <v>86.8890990341563</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443877</v>
+        <v>72.03622728443871</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627849</v>
+        <v>57.60994249627844</v>
       </c>
       <c r="E43" t="n">
-        <v>57.5363845491576</v>
+        <v>57.53638454915755</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892487</v>
+        <v>59.28583596892481</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131701</v>
+        <v>70.10467389131695</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788905</v>
+        <v>57.45692605788899</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906098</v>
+        <v>35.29664163906092</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.1951400035169</v>
+        <v>26.19514000351684</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432162</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V43" t="n">
         <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779023</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X43" t="n">
         <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012911</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>292.7769070118667</v>
       </c>
       <c r="D44" t="n">
-        <v>69.49983735684685</v>
+        <v>109.9667971102786</v>
       </c>
       <c r="E44" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F44" t="n">
         <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>312.564288486645</v>
+        <v>312.5642884866449</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822791</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812804</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>124.7987569459455</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>242.2189017332848</v>
       </c>
       <c r="W44" t="n">
         <v>270.8222052111635</v>
@@ -4043,7 +4043,7 @@
         <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415636</v>
+        <v>86.8890990341563</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443877</v>
+        <v>72.03622728443871</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627849</v>
+        <v>57.60994249627844</v>
       </c>
       <c r="E46" t="n">
-        <v>57.5363845491576</v>
+        <v>57.53638454915755</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892487</v>
+        <v>59.28583596892481</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131701</v>
+        <v>70.10467389131695</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788905</v>
+        <v>57.45692605788899</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906098</v>
+        <v>35.29664163906092</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.1951400035169</v>
+        <v>26.19514000351684</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432162</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V46" t="n">
         <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779023</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X46" t="n">
         <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012911</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>740.1725214111282</v>
+        <v>999.0496848552178</v>
       </c>
       <c r="C2" t="n">
-        <v>740.1725214111282</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="D2" t="n">
-        <v>740.1725214111282</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="E2" t="n">
-        <v>740.1725214111282</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="F2" t="n">
-        <v>727.31848698151</v>
+        <v>916.0812487516637</v>
       </c>
       <c r="G2" t="n">
-        <v>504.9109058780834</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J2" t="n">
-        <v>187.140511445867</v>
+        <v>138.4138119172006</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733288</v>
+        <v>497.3961679446624</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191858</v>
+        <v>990.7164596631912</v>
       </c>
       <c r="M2" t="n">
-        <v>1565.266048587713</v>
+        <v>990.7164596631912</v>
       </c>
       <c r="N2" t="n">
-        <v>1591.503874579472</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579472</v>
+        <v>1491.883242658641</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710994</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851943</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>1958.023371792993</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T2" t="n">
-        <v>1734.52276935241</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U2" t="n">
-        <v>1478.770039787008</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="V2" t="n">
-        <v>1136.663230490527</v>
+        <v>999.0496848552178</v>
       </c>
       <c r="W2" t="n">
-        <v>1136.663230490527</v>
+        <v>999.0496848552178</v>
       </c>
       <c r="X2" t="n">
-        <v>1136.663230490527</v>
+        <v>999.0496848552178</v>
       </c>
       <c r="Y2" t="n">
-        <v>740.1725214111282</v>
+        <v>999.0496848552178</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202257</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695301</v>
+        <v>422.6746203311134</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526619</v>
+        <v>298.2428142142452</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512727</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>155.6057207567662</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>442.2072945938177</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896734</v>
+        <v>1639.512960007563</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580655</v>
+        <v>1639.512960007563</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297052</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750007</v>
+        <v>2000.999251829176</v>
       </c>
       <c r="S3" t="n">
-        <v>2012.67147566062</v>
+        <v>1897.535575791322</v>
       </c>
       <c r="T3" t="n">
-        <v>1835.687663859528</v>
+        <v>1720.551763990231</v>
       </c>
       <c r="U3" t="n">
-        <v>1625.62452053817</v>
+        <v>1510.488620668872</v>
       </c>
       <c r="V3" t="n">
-        <v>1403.084518909237</v>
+        <v>1287.94861903994</v>
       </c>
       <c r="W3" t="n">
-        <v>1172.967273042524</v>
+        <v>1057.831373173226</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>868.5242955232382</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>689.2100785987453</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.1238516345241</v>
+        <v>113.7868864808621</v>
       </c>
       <c r="C4" t="n">
-        <v>198.1238516345241</v>
+        <v>113.7868864808621</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>617.2206878937177</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>617.2206878937177</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>617.2206878937177</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="V4" t="n">
-        <v>432.204173851541</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="W4" t="n">
-        <v>432.204173851541</v>
+        <v>298.9949051721633</v>
       </c>
       <c r="X4" t="n">
-        <v>198.1238516345241</v>
+        <v>298.9949051721633</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.1238516345241</v>
+        <v>298.9949051721633</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615.916562496512</v>
+        <v>359.3535813976262</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.741060999442</v>
+        <v>62.47471179983319</v>
       </c>
       <c r="D5" t="n">
-        <v>837.2999322161099</v>
+        <v>62.47471179983319</v>
       </c>
       <c r="E5" t="n">
-        <v>606.8446453861891</v>
+        <v>62.47471179983319</v>
       </c>
       <c r="F5" t="n">
-        <v>593.9906109565709</v>
+        <v>49.62067737021501</v>
       </c>
       <c r="G5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J5" t="n">
-        <v>187.140511445867</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K5" t="n">
-        <v>317.1666527137076</v>
+        <v>399.4806819260841</v>
       </c>
       <c r="L5" t="n">
-        <v>810.4869444322364</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="M5" t="n">
-        <v>810.4869444322364</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="N5" t="n">
-        <v>1336.309833828092</v>
+        <v>1393.967756640063</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.349434720421</v>
+        <v>1834.007357532392</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851943</v>
+        <v>1840.070734790163</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.023371792993</v>
+        <v>1858.402739872162</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.023371792993</v>
+        <v>1858.402739872162</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.023371792993</v>
+        <v>1858.402739872162</v>
       </c>
       <c r="V5" t="n">
-        <v>1615.916562496512</v>
+        <v>1516.295930575681</v>
       </c>
       <c r="W5" t="n">
-        <v>1615.916562496512</v>
+        <v>1145.296895543968</v>
       </c>
       <c r="X5" t="n">
-        <v>1615.916562496512</v>
+        <v>755.8442904770251</v>
       </c>
       <c r="Y5" t="n">
-        <v>1615.916562496512</v>
+        <v>359.3535813976262</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>623.4703378991511</v>
+        <v>839.8643090386531</v>
       </c>
       <c r="C6" t="n">
-        <v>472.8161074592433</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="D6" t="n">
-        <v>472.8161074592433</v>
+        <v>559.1211112202257</v>
       </c>
       <c r="E6" t="n">
-        <v>336.369616570131</v>
+        <v>422.6746203311134</v>
       </c>
       <c r="F6" t="n">
-        <v>211.9378104532628</v>
+        <v>298.2428142142452</v>
       </c>
       <c r="G6" t="n">
-        <v>91.87799252512727</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512727</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K6" t="n">
-        <v>42.49073853703885</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>526.0568244353522</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M6" t="n">
-        <v>968.0301839896734</v>
+        <v>861.4042549562988</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896734</v>
+        <v>1118.128143219264</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580655</v>
+        <v>1619.294926214714</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297052</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750007</v>
+        <v>2000.999251829176</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649876</v>
+        <v>1866.068574729045</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848784</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527426</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898493</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.98500403178</v>
+        <v>1360.281938054095</v>
       </c>
       <c r="X6" t="n">
-        <v>954.5808892646053</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y6" t="n">
-        <v>775.2666723401125</v>
+        <v>991.6606434796145</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.4871496008548</v>
+        <v>226.5097091700055</v>
       </c>
       <c r="C7" t="n">
-        <v>666.4871496008548</v>
+        <v>226.5097091700055</v>
       </c>
       <c r="D7" t="n">
-        <v>510.8540365033695</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="E7" t="n">
-        <v>355.295224362572</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="F7" t="n">
-        <v>197.9692895755449</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755449</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703885</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703885</v>
+        <v>70.87659607252029</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703885</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T7" t="n">
-        <v>708.2187092468254</v>
+        <v>777.9278461072804</v>
       </c>
       <c r="U7" t="n">
-        <v>708.2187092468254</v>
+        <v>492.4890543491813</v>
       </c>
       <c r="V7" t="n">
-        <v>708.2187092468254</v>
+        <v>226.5097091700055</v>
       </c>
       <c r="W7" t="n">
-        <v>708.2187092468254</v>
+        <v>226.5097091700055</v>
       </c>
       <c r="X7" t="n">
-        <v>708.2187092468254</v>
+        <v>226.5097091700055</v>
       </c>
       <c r="Y7" t="n">
-        <v>708.2187092468254</v>
+        <v>226.5097091700055</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2023.541695780699</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="C8" t="n">
-        <v>1630.366194283629</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="D8" t="n">
-        <v>1244.925065500297</v>
+        <v>702.5094904747293</v>
       </c>
       <c r="E8" t="n">
-        <v>842.3415406168415</v>
+        <v>299.9259655912738</v>
       </c>
       <c r="F8" t="n">
-        <v>829.4875061872233</v>
+        <v>287.0719311616556</v>
       </c>
       <c r="G8" t="n">
-        <v>416.3247506752264</v>
+        <v>277.9495796900629</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,52 +4802,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780699</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>2023.541695780699</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>2023.541695780699</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>2023.541695780699</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>560.7358901343441</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C10" t="n">
-        <v>560.7358901343441</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>560.7358901343441</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>493.2118812899988</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>745.9439088256454</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>745.9439088256454</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>745.9439088256454</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X10" t="n">
-        <v>745.9439088256454</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="Y10" t="n">
-        <v>745.9439088256454</v>
+        <v>237.3930558841897</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1609.543013684023</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1311.308193474142</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1020.807745977998</v>
+        <v>731.4357765463909</v>
       </c>
       <c r="E11" t="n">
-        <v>713.1649023817314</v>
+        <v>423.7929329501238</v>
       </c>
       <c r="F11" t="n">
-        <v>391.2111451988976</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G11" t="n">
-        <v>72.98907097408858</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>72.98907097408858</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5060,31 +5060,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3034.383511434015</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2787.217383424721</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2511.159029680197</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2216.647105900443</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1915.097078108232</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F12" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G12" t="n">
         <v>199.803798091603</v>
@@ -5115,13 +5115,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
         <v>978.5393418843826</v>
@@ -5130,13 +5130,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082776</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979808</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445329</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
         <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757666</v>
       </c>
       <c r="L13" t="n">
         <v>557.4621512791397</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469771</v>
+        <v>836.8050913469772</v>
       </c>
       <c r="N13" t="n">
         <v>1113.04608710776</v>
@@ -5218,31 +5218,31 @@
         <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484818</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404583</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874321</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329741</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852095</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.523084255381</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1871.211875180718</v>
+        <v>1625.725108676624</v>
       </c>
       <c r="C14" t="n">
-        <v>1572.977054970837</v>
+        <v>1327.490288466743</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474693</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>931.4373282580791</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>609.4835710752452</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244623</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K14" t="n">
         <v>565.7512566404055</v>
@@ -5288,7 +5288,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5300,28 +5300,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205775</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3048.886244921417</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>3048.886244921417</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>3048.886244921417</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2772.827891176892</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2478.315967397137</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>2176.765939604927</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5340,10 +5340,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F15" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G15" t="n">
         <v>199.803798091603</v>
@@ -5352,28 +5352,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>174.7633905351325</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1920.837450676059</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>1845.573014029237</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>1784.88058221894</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>1724.262451365331</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>1661.877197865492</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>1588.563825252126</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>1528.025955500808</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
-        <v>1489.872211425074</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>1553.14983055721</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>1728.036233396725</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>1985.215235000098</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>2264.558175067935</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
-        <v>2540.799170828718</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>2796.555299599999</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>3009.482827106151</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>3105.956385205775</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
-        <v>3076.996077125541</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>2969.120674595279</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>2828.342304050701</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>2637.844193579791</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>2466.805529687803</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>2278.415808906169</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>2139.27616797634</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y16" t="n">
-        <v>2011.104788080172</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099307</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5531,7 +5531,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5546,16 +5546,16 @@
         <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5589,7 +5589,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
         <v>175.2341099238429</v>
@@ -5598,19 +5598,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411552</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411597</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5780,19 +5780,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5826,7 +5826,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485496</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6227,7 +6227,7 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
         <v>1163.368641331942</v>
@@ -6254,22 +6254,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6306,13 +6306,13 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6361,7 +6361,7 @@
         <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
@@ -6376,22 +6376,22 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286446</v>
+        <v>861.9084564286449</v>
       </c>
       <c r="X28" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142171</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678962</v>
       </c>
       <c r="I29" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958359</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6497,16 +6497,16 @@
         <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="M30" t="n">
-        <v>1133.990636856185</v>
+        <v>1020.875654636458</v>
       </c>
       <c r="N30" t="n">
-        <v>1789.768608066744</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2306.288890657725</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6622,13 +6622,13 @@
         <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904114</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286446</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084639</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985473</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144934</v>
+        <v>890.2201666674334</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423751</v>
+        <v>590.527580547476</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282823</v>
+        <v>294.5666773855439</v>
       </c>
       <c r="H32" t="n">
-        <v>96.1864398926768</v>
+        <v>87.6854793020992</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304551</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193355</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1173.98555567825</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1828.476963363216</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2382.805063078651</v>
+        <v>2252.184354569789</v>
       </c>
       <c r="O32" t="n">
-        <v>2822.844663970979</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3171.032156102501</v>
+        <v>3065.032496333757</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.87771624345</v>
+        <v>3249.878056474706</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152276</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.31111849123</v>
+        <v>3278.19903452256</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.50382044855</v>
+        <v>3171.900284432042</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281052</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382475</v>
+        <v>2808.444450270288</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748667</v>
+        <v>2554.64726758864</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079627</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398132</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155367</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304551</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304551</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>388.2817734452719</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>871.8478593435852</v>
+        <v>600.6073572313144</v>
       </c>
       <c r="M33" t="n">
-        <v>871.8478593435852</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1527.625830554144</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590215</v>
+        <v>341.687256555478</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229146</v>
+        <v>288.6839909715321</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233332</v>
+        <v>250.2527302241117</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804396</v>
+        <v>211.8957704333791</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913164</v>
+        <v>171.7716879964169</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886659</v>
+        <v>120.7194864459273</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806374</v>
+        <v>82.44278775748613</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304551</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259936</v>
+        <v>151.64600763549</v>
       </c>
       <c r="K34" t="n">
-        <v>229.0944335359355</v>
+        <v>233.4810487454318</v>
       </c>
       <c r="L34" t="n">
-        <v>393.2220734097353</v>
+        <v>397.6086886192317</v>
       </c>
       <c r="M34" t="n">
-        <v>579.5136517479993</v>
+        <v>627.5238173231619</v>
       </c>
       <c r="N34" t="n">
-        <v>871.1937934195942</v>
+        <v>810.713451354371</v>
       </c>
       <c r="O34" t="n">
-        <v>1142.389068101688</v>
+        <v>1088.287753884378</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381861</v>
+        <v>1323.033455149255</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392298</v>
+        <v>1326.455651519306</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422779</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003232</v>
+        <v>1234.142283034562</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.22861956937</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209175</v>
+        <v>947.3881441448267</v>
       </c>
       <c r="V34" t="n">
-        <v>872.197091427903</v>
+        <v>798.6106513157158</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569846</v>
+        <v>632.4821015969583</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378716</v>
+        <v>515.6036317300062</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524188</v>
+        <v>409.6934228967144</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292424</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>1493.196009291336</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7096,13 +7096,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012521</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750519</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133159</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
         <v>804.578023344525</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7163,7 +7163,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7330,19 +7330,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O40" t="n">
         <v>974.9038003296503</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1548.565607366781</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1252.831357859845</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D41" t="n">
-        <v>964.8314810666462</v>
+        <v>756.4414835758403</v>
       </c>
       <c r="E41" t="n">
-        <v>964.8314810666462</v>
+        <v>649.1099775447824</v>
       </c>
       <c r="F41" t="n">
-        <v>645.3782945867572</v>
+        <v>329.6567910648935</v>
       </c>
       <c r="G41" t="n">
-        <v>329.6567910648936</v>
+        <v>329.6567910648935</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215175</v>
+        <v>103.0149926215174</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,16 +7445,16 @@
         <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2507.847696804894</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W41" t="n">
         <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2150.668558177311</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1851.619101088045</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="42">
@@ -7494,19 +7494,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.580372034486</v>
+        <v>475.5803720344856</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906081</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832562</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325922</v>
+        <v>286.507084832592</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356982</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7723010769044</v>
+        <v>97.77230107690434</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>127.8475561822077</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>305.1847683676792</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>564.8145793170086</v>
       </c>
       <c r="M43" t="n">
-        <v>846.608328730802</v>
+        <v>786.9927227160319</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822771</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P43" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.269802792117</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860408</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.35960103309</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423492</v>
       </c>
       <c r="V43" t="n">
         <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557611</v>
+        <v>825.6570181557606</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288774</v>
+        <v>689.017947928877</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356541</v>
+        <v>563.3471387356536</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1340.175609875975</v>
+        <v>1409.247912944792</v>
       </c>
       <c r="C44" t="n">
-        <v>1340.175609875975</v>
+        <v>1113.513663437856</v>
       </c>
       <c r="D44" t="n">
-        <v>1269.973753959968</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>964.8314810666461</v>
+        <v>697.2938177058679</v>
       </c>
       <c r="F44" t="n">
-        <v>645.3782945867572</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648936</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215175</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.82473168651</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111242</v>
+        <v>2821.585557180058</v>
       </c>
       <c r="V44" t="n">
-        <v>2507.847696804893</v>
+        <v>2576.91999987371</v>
       </c>
       <c r="W44" t="n">
-        <v>2234.289913763314</v>
+        <v>2303.362216832131</v>
       </c>
       <c r="X44" t="n">
-        <v>1942.278560686504</v>
+        <v>2011.350863755321</v>
       </c>
       <c r="Y44" t="n">
-        <v>1643.229103597239</v>
+        <v>1712.301406666056</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.580372034486</v>
+        <v>475.5803720344856</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906081</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832562</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.507084832592</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356982</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7723010769044</v>
+        <v>97.77230107690434</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822076</v>
+        <v>127.8475561822077</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>305.1847683676792</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170083</v>
+        <v>564.8145793170086</v>
       </c>
       <c r="M46" t="n">
-        <v>846.608328730802</v>
+        <v>786.9927227160319</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822771</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P46" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.269802792117</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860408</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.35960103309</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423492</v>
       </c>
       <c r="V46" t="n">
         <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557611</v>
+        <v>825.6570181557606</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288774</v>
+        <v>689.017947928877</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356541</v>
+        <v>563.3471387356536</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>216.5843692742434</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,10 +7985,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.859283310713</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>175.6213458749143</v>
+        <v>655.347565070562</v>
       </c>
       <c r="O2" t="n">
         <v>149.5638374240964</v>
@@ -8061,19 +8061,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>381.8836612786568</v>
+        <v>598.6161957820898</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671523</v>
+        <v>591.6011865869446</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>239.6472470098782</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>274.3979398134198</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8225,16 +8225,16 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>680.2527230507698</v>
+        <v>655.347565070562</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>156.4260707336238</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8295,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>538.8248589728688</v>
+        <v>598.6161957820898</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>344.6891717056467</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216668</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>363.2059172909298</v>
       </c>
       <c r="M8" t="n">
-        <v>301.2346582324079</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,10 +8532,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274122</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>279.5693555729968</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,13 +8544,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294505</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,16 +9003,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.2265410010273</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,22 +9246,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>176.3345925796061</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,10 +9714,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,7 +9726,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9954,16 +9954,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>115.098975589205</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10200,16 +10200,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>301.854937525337</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>173.3576105420019</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,22 +10425,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>314.1682372053023</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>335.1420048916687</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -11142,22 +11142,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7170059000183</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548577</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>32.20122742686996</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954308</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>200.0694275749097</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404347</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>70.77488306034535</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -25634,13 +25634,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>302.090850164389</v>
+        <v>195.832659193642</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>312.5642884866449</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>206.3060975158986</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25865,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>215.6200406684202</v>
+        <v>175.1530809149884</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822786</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812798</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>728134.2732278593</v>
+        <v>726931.1780003386</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>728134.2732278593</v>
+        <v>726931.1780003386</v>
       </c>
     </row>
     <row r="4">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>736879.4487233827</v>
+        <v>736879.4487233825</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>698434.4715397991</v>
+        <v>698434.4715397992</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>698434.4715397992</v>
+        <v>698434.4715397994</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>577062.9698987418</v>
       </c>
       <c r="D2" t="n">
-        <v>577062.9698987417</v>
+        <v>577062.9698987416</v>
       </c>
       <c r="E2" t="n">
-        <v>542323.5925863629</v>
+        <v>542323.5925863623</v>
       </c>
       <c r="F2" t="n">
-        <v>542323.5925863625</v>
+        <v>542323.5925863618</v>
       </c>
       <c r="G2" t="n">
-        <v>577062.9698987415</v>
+        <v>577062.9698987418</v>
       </c>
       <c r="H2" t="n">
-        <v>577062.9698987413</v>
+        <v>577062.9698987416</v>
       </c>
       <c r="I2" t="n">
         <v>577062.9698987417</v>
       </c>
       <c r="J2" t="n">
+        <v>577062.9698987406</v>
+      </c>
+      <c r="K2" t="n">
         <v>577062.9698987404</v>
-      </c>
-      <c r="K2" t="n">
-        <v>577062.9698987409</v>
       </c>
       <c r="L2" t="n">
         <v>577062.9698987419</v>
       </c>
       <c r="M2" t="n">
+        <v>577062.9698987413</v>
+      </c>
+      <c r="N2" t="n">
         <v>577062.9698987416</v>
       </c>
-      <c r="N2" t="n">
-        <v>577062.9698987413</v>
-      </c>
       <c r="O2" t="n">
-        <v>544688.2522704608</v>
+        <v>544688.2522704607</v>
       </c>
       <c r="P2" t="n">
-        <v>544688.2522704609</v>
+        <v>544688.2522704607</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343509</v>
+        <v>169649.0058765497</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.1223860264</v>
+        <v>26460.41160941832</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301435</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469668</v>
+        <v>215329.5897923932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670103</v>
+        <v>46725.80335481255</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.2769343684</v>
+        <v>43782.97194555668</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213463.5449614851</v>
+        <v>218972.6240101879</v>
       </c>
       <c r="C4" t="n">
-        <v>213463.5449614851</v>
+        <v>218972.6240101879</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
       </c>
       <c r="E4" t="n">
-        <v>148856.2633404649</v>
+        <v>148856.2633404648</v>
       </c>
       <c r="F4" t="n">
         <v>148856.2633404648</v>
@@ -26442,10 +26442,10 @@
         <v>174211.0764483299</v>
       </c>
       <c r="K4" t="n">
-        <v>174211.07644833</v>
+        <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173888.2217936688</v>
+        <v>173754.827184614</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814953</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814953</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,13 +26479,13 @@
         <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.28950890909</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26494,10 +26494,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.2134644677</v>
+        <v>60332.67530588337</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255073</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255073</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119683.5665147562</v>
+        <v>124035.0123290511</v>
       </c>
       <c r="C6" t="n">
-        <v>297678.8636491072</v>
+        <v>293684.018205601</v>
       </c>
       <c r="D6" t="n">
-        <v>288623.4561776289</v>
+        <v>280887.1669542369</v>
       </c>
       <c r="E6" t="n">
-        <v>207902.1085992768</v>
+        <v>207793.548045175</v>
       </c>
       <c r="F6" t="n">
-        <v>338355.0397369886</v>
+        <v>338246.4791828867</v>
       </c>
       <c r="G6" t="n">
-        <v>316337.6607262606</v>
+        <v>316337.6607262611</v>
       </c>
       <c r="H6" t="n">
-        <v>345432.6165992749</v>
+        <v>345432.6165992751</v>
       </c>
       <c r="I6" t="n">
         <v>345432.6165992753</v>
       </c>
       <c r="J6" t="n">
-        <v>117346.9732495242</v>
+        <v>123863.2584040981</v>
       </c>
       <c r="K6" t="n">
-        <v>339192.8481964914</v>
+        <v>339192.848196491</v>
       </c>
       <c r="L6" t="n">
-        <v>300298.5012639044</v>
+        <v>296249.6640534319</v>
       </c>
       <c r="M6" t="n">
-        <v>302701.3396649067</v>
+        <v>301649.6446537182</v>
       </c>
       <c r="N6" t="n">
-        <v>345432.6165992749</v>
+        <v>345432.6165992751</v>
       </c>
       <c r="O6" t="n">
-        <v>319853.405418297</v>
+        <v>319752.2344257085</v>
       </c>
       <c r="P6" t="n">
-        <v>338836.965248454</v>
+        <v>338735.7942558654</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="P2" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
     </row>
     <row r="3">
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129856</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129856</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880689</v>
+        <v>831.877684307861</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304859</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087629</v>
+        <v>58.40725419351568</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165956</v>
+        <v>14.33013548902019</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129856</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630943</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0769700321488</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559199</v>
+        <v>646.800714275712</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.783224045524</v>
+        <v>129.688382025732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304859</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129856</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630943</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321488</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>319.8304888249021</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>188.8476226644845</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>46.51244632063656</v>
+        <v>31.15233105165446</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>81.52110699009297</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>80.15320282562908</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>95.33366558028359</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>170.4069556729993</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27749,16 +27749,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>110.2637886710711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>17.72393325398559</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.0416944548774</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27780,22 +27780,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>193.6465134776317</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27853,7 +27853,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>92.4743028996881</v>
+        <v>229.465722175</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>149.2534355460791</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>87.15445526348766</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28065,7 +28065,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733238</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28743,22 +28743,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
-        <v>5.63600263452858</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28986,25 +28986,25 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5.636002634528595</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29223,25 +29223,25 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>128.2979821082779</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29299,10 +29299,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431646</v>
@@ -29317,7 +29317,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901272</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.9912744743165</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>30.27223765901255</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.9912744743165</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>26.7846627050227</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>24.86974620213925</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>44.06419228855174</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P34" t="n">
-        <v>58.99686212484343</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30168,16 +30168,16 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>128.2979821082774</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30402,22 +30402,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.636002634528452</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>35.7104901066877</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="C41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="D41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="E41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="F41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="G41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="H41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="I41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="T41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="U41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="V41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="W41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="X41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="C43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="D43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="E43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="F43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="G43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="H43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="I43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="J43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="K43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="L43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="M43" t="n">
-        <v>96.4668394702319</v>
+        <v>36.24905561692864</v>
       </c>
       <c r="N43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="O43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="P43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.24905561693076</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="R43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="S43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="T43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="U43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="V43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="W43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="X43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="C44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="D44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="E44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="F44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="G44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="H44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="I44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="T44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="U44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="V44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="W44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="X44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="C46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="D46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="E46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="F46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="G46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="H46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="I46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="J46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="K46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="L46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="M46" t="n">
-        <v>96.4668394702319</v>
+        <v>36.24905561692864</v>
       </c>
       <c r="N46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="O46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="P46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.24905561693076</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="R46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="S46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="T46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="U46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="V46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="W46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="X46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023196</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>98.90453133189732</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,10 +34705,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129856</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.50285453713018</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>289.4965392293449</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129856</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>152.5638821905636</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>131.3395366341825</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129856</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>6.12462349269865</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>446.4377369235569</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>259.3170588514801</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="M8" t="n">
-        <v>151.5096066346806</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>148.7405620940789</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>189.5090087160786</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,13 +35264,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110584</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215744</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
-        <v>282.1645859271085</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.448038484469</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>113.782083667694</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35966,22 +35966,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>86.27424572268784</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,10 +36051,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716074</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36282,7 +36282,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36519,10 +36519,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36613,7 +36613,7 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700718</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>22.71185353989308</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907922</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853757</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698322</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36920,16 +36920,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>216.4828246711704</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>86.27424572268727</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215743</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
@@ -37002,13 +37002,13 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446898</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.8896963221358</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>661.1024320050163</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>559.9273734499338</v>
+        <v>649.1725445714753</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>376.574283708727</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659157</v>
+        <v>78.41684924923094</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>221.4806783164134</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176578</v>
+        <v>85.95534635440515</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>232.2375037413437</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288836</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910037</v>
+        <v>280.3780833636431</v>
       </c>
       <c r="P34" t="n">
-        <v>180.0838982628016</v>
+        <v>237.1168699645224</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640773</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>249.769892037502</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>210.9596397950874</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37473,7 +37473,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832362</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133843</v>
       </c>
       <c r="L40" t="n">
-        <v>201.4959849287077</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37862,22 +37862,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807283</v>
+        <v>66.39235199807288</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570419</v>
@@ -37944,19 +37944,19 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230238</v>
+        <v>224.4223670697206</v>
       </c>
       <c r="N43" t="n">
         <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073107</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P43" t="n">
         <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.70581962708324</v>
+        <v>99.92360348038444</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807283</v>
+        <v>66.39235199807288</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
@@ -38181,19 +38181,19 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230238</v>
+        <v>224.4223670697206</v>
       </c>
       <c r="N46" t="n">
         <v>281.5068738451907</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073107</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P46" t="n">
         <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.70581962708324</v>
+        <v>99.92360348038444</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
